--- a/biology/Botanique/Fallopia_sachalinensis/Fallopia_sachalinensis.xlsx
+++ b/biology/Botanique/Fallopia_sachalinensis/Fallopia_sachalinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renouée de Sakhaline
 Fallopia sachalinensis, la Renouée de Sakhaline, est une espèce de plantes envahissantes de la famille des Polygonacées. Selon les sources, cette espèce est incluse dans le genre Fallopia ou dans le genre Reynoutria.
@@ -512,17 +524,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fallopia sachalinensis F.Schmidt Ronse Decr., 1988[5]
-Reynoutria sachalinensis (Friedrich Schmidt Petrop.) Nakai[6]
-Synonymes
-Fallopia sachalinensis (F.Schmidt) Ronse Decr.[2],[3],[4]
-Polygonum sachalinense F.Schmidt[2],[3],[4]
-Reynoutria brachyphylla (Honda) Nakai[4]
-Reynoutria sachalinensis (F. Schmidt) Nakai (préféré par BioLib)[2](préféré par GRIN)[3]
-Tiniaria sachalinensis (F. Schmidt) Janch.[2]
-Tiniaria sachalinensis (F.Schmidt) Janch.[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fallopia sachalinensis F.Schmidt Ronse Decr., 1988
+Reynoutria sachalinensis (Friedrich Schmidt Petrop.) Nakai</t>
         </is>
       </c>
     </row>
@@ -547,13 +554,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des variétés</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon Tropicos                                           (29 octobre 2018)[1] :
-variété Fallopia sachalinensis var. intermedia Yonek. &amp; H. Ohashi</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fallopia sachalinensis (F.Schmidt) Ronse Decr.
+Polygonum sachalinense F.Schmidt
+Reynoutria brachyphylla (Honda) Nakai
+Reynoutria sachalinensis (F. Schmidt) Nakai (préféré par BioLib)(préféré par GRIN)
+Tiniaria sachalinensis (F. Schmidt) Janch.
+Tiniaria sachalinensis (F.Schmidt) Janch.</t>
         </is>
       </c>
     </row>
@@ -578,13 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom commun de renouée vient de l'aspect noueux des tiges, il est aussi attribué aux plantes du genre Polygonum. Sakhaline est une île située à l'est de la fédération de Russie.
-</t>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 octobre 2018) :
+variété Fallopia sachalinensis var. intermedia Yonek. &amp; H. Ohashi</t>
         </is>
       </c>
     </row>
@@ -609,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom commun de renouée vient de l'aspect noueux des tiges, il est aussi attribué aux plantes du genre Polygonum. Sakhaline est une île située à l'est de la fédération de Russie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fallopia_sachalinensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fallopia_sachalinensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fallopia sachalinensis est une plante herbacée vivace pouvant atteindre une hauteur de 3 m :
 fleurs blanches à 5 pétales ;
@@ -621,37 +675,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fallopia_sachalinensis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fallopia_sachalinensis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Renouée de Sakhaline est présente en Amérique du Nord, en Asie, en Océanie et dans la majorité des pays européens. On la trouve sur une grande partie du territoire français, plus fortement dans le nord, l'est et dans la vallée du Rhône[7].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -673,10 +696,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Renouée de Sakhaline est présente en Amérique du Nord, en Asie, en Océanie et dans la majorité des pays européens. On la trouve sur une grande partie du territoire français, plus fortement dans le nord, l'est et dans la vallée du Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fallopia_sachalinensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fallopia_sachalinensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pousses sont tendres et comestibles. Il a été introduit en Europe et cultivé dans de nombreux jardins botaniques. Il a été mis en évidence vers 1893, lorsqu'une sécheresse en Europe occidentale a provoqué une grave pénurie de fourrage pour le bétail. Cette plante a été peu affectée, et comme ses pousses et ses feuilles tendres étaient mangées par le bétail, la plante a été largement cultivée expérimentalement comme culture fourragère . Il s'est avéré moins utile que prévu et sa culture délibérée a été presque entièrement abandonnée.  Cependant, comme F. japonica , il s'est avéré être une mauvaise herbe envahissante dans plusieurs régions. 
 Il s'est hybride avec Reynoutria japonica en culture ; l'hybride Reynoutria × bohemica (Chrtek &amp; Chrtková) JPBailey, se trouve fréquemment dans les îles britanniques et ailleurs. 
